--- a/server/storage/private/report/Playtorium_Summary_Timesheet.xlsx
+++ b/server/storage/private/report/Playtorium_Summary_Timesheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmark_s/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmark_s/Documents/playtorium/emp-management/server/storage/private/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timesheet!$B$2:$V$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timesheet!$B$2:$Q$125</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="144">
   <si>
     <t>รหัสพนักงาน</t>
   </si>
@@ -464,12 +464,6 @@
   </si>
   <si>
     <t>AIA-Automate Testing Service on COAST-CR</t>
-  </si>
-  <si>
-    <t>Feb-17 เดิม</t>
-  </si>
-  <si>
-    <t>Feb-17 แก้ไข</t>
   </si>
 </sst>
 </file>
@@ -479,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +523,12 @@
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Angsana New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -981,11 +981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X132"/>
+  <dimension ref="B2:S132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -994,17 +994,11 @@
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="6" customWidth="1"/>
-    <col min="10" max="11" width="6.5" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="22" width="6.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="17" width="6.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1019,13 +1013,8 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-    </row>
-    <row r="3" spans="2:22" ht="36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1037,12 +1026,8 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1052,13 +1037,8 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -1071,13 +1051,8 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-    </row>
-    <row r="5" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -1094,13 +1069,8 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -1117,13 +1087,8 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E7"/>
       <c r="G7"/>
       <c r="H7"/>
@@ -1136,13 +1101,8 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-    </row>
-    <row r="8" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -1159,13 +1119,8 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -1178,13 +1133,8 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-    </row>
-    <row r="10" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1201,13 +1151,8 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-    </row>
-    <row r="11" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1224,13 +1169,8 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E12"/>
       <c r="G12"/>
       <c r="H12"/>
@@ -1243,13 +1183,8 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-    </row>
-    <row r="13" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1266,13 +1201,8 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-    </row>
-    <row r="14" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1289,13 +1219,8 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-    </row>
-    <row r="15" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1312,13 +1237,8 @@
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -1331,13 +1251,8 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -1354,13 +1269,8 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -1377,13 +1287,8 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -1400,13 +1305,8 @@
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -1423,13 +1323,8 @@
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -1446,13 +1341,8 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -1469,13 +1359,8 @@
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E23"/>
       <c r="G23"/>
       <c r="H23"/>
@@ -1488,13 +1373,8 @@
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -1511,13 +1391,8 @@
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -1534,13 +1409,8 @@
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1557,13 +1427,8 @@
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -1580,13 +1445,8 @@
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1603,13 +1463,8 @@
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-    </row>
-    <row r="29" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1626,13 +1481,8 @@
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E30"/>
       <c r="G30"/>
       <c r="H30"/>
@@ -1645,13 +1495,8 @@
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-    </row>
-    <row r="31" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1668,13 +1513,8 @@
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1691,13 +1531,8 @@
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-    </row>
-    <row r="33" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1714,13 +1549,8 @@
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E34"/>
       <c r="G34"/>
       <c r="H34"/>
@@ -1733,13 +1563,8 @@
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-    </row>
-    <row r="35" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -1756,13 +1581,8 @@
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-    </row>
-    <row r="36" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -1779,13 +1599,8 @@
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E37"/>
       <c r="G37"/>
       <c r="H37"/>
@@ -1798,13 +1613,8 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-    </row>
-    <row r="38" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -1821,13 +1631,8 @@
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -1844,13 +1649,8 @@
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-    </row>
-    <row r="40" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -1867,13 +1667,8 @@
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E41"/>
       <c r="G41"/>
       <c r="H41"/>
@@ -1886,13 +1681,8 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-    </row>
-    <row r="42" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -1909,13 +1699,8 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-    </row>
-    <row r="43" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -1932,13 +1717,8 @@
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-    </row>
-    <row r="44" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -1955,14 +1735,9 @@
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44" s="7"/>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E45"/>
       <c r="G45"/>
       <c r="H45"/>
@@ -1975,14 +1750,9 @@
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45" s="7"/>
-    </row>
-    <row r="46" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -1999,14 +1769,9 @@
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46" s="7"/>
-    </row>
-    <row r="47" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -2023,14 +1788,9 @@
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47" s="7"/>
-    </row>
-    <row r="48" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -2047,14 +1807,9 @@
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48" s="7"/>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E49"/>
       <c r="G49"/>
       <c r="H49"/>
@@ -2067,14 +1822,9 @@
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49" s="7"/>
-    </row>
-    <row r="50" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -2091,14 +1841,9 @@
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50" s="7"/>
-    </row>
-    <row r="51" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -2115,14 +1860,9 @@
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51" s="7"/>
-    </row>
-    <row r="52" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -2139,13 +1879,8 @@
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E53"/>
       <c r="G53"/>
       <c r="H53"/>
@@ -2158,13 +1893,8 @@
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-    </row>
-    <row r="54" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -2181,13 +1911,8 @@
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-    </row>
-    <row r="55" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -2204,13 +1929,8 @@
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-    </row>
-    <row r="56" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -2227,13 +1947,8 @@
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-    </row>
-    <row r="57" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -2250,13 +1965,8 @@
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E58"/>
       <c r="G58"/>
       <c r="H58"/>
@@ -2269,13 +1979,8 @@
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-    </row>
-    <row r="59" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -2292,13 +1997,8 @@
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-    </row>
-    <row r="60" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -2315,13 +2015,8 @@
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E61"/>
       <c r="G61"/>
       <c r="H61"/>
@@ -2334,13 +2029,8 @@
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-    </row>
-    <row r="62" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -2357,13 +2047,8 @@
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-    </row>
-    <row r="63" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -2380,13 +2065,8 @@
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-    </row>
-    <row r="64" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -2403,13 +2083,8 @@
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E65"/>
       <c r="G65"/>
       <c r="H65"/>
@@ -2422,13 +2097,8 @@
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-    </row>
-    <row r="66" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -2445,13 +2115,8 @@
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-    </row>
-    <row r="67" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -2468,13 +2133,8 @@
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E68"/>
       <c r="G68"/>
       <c r="H68"/>
@@ -2487,13 +2147,8 @@
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-    </row>
-    <row r="69" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -2510,13 +2165,8 @@
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-    </row>
-    <row r="70" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -2533,13 +2183,8 @@
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-    </row>
-    <row r="71" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -2556,13 +2201,8 @@
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-    </row>
-    <row r="72" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -2579,13 +2219,8 @@
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-    </row>
-    <row r="73" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -2602,13 +2237,8 @@
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-    </row>
-    <row r="74" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -2625,13 +2255,8 @@
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-    </row>
-    <row r="75" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -2648,13 +2273,8 @@
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E76"/>
       <c r="G76"/>
       <c r="H76"/>
@@ -2667,13 +2287,8 @@
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-    </row>
-    <row r="77" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -2690,13 +2305,8 @@
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-    </row>
-    <row r="78" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -2713,13 +2323,8 @@
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E79"/>
       <c r="G79"/>
       <c r="H79"/>
@@ -2732,13 +2337,8 @@
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79"/>
-      <c r="V79"/>
-    </row>
-    <row r="80" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -2755,13 +2355,8 @@
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-    </row>
-    <row r="81" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -2778,13 +2373,8 @@
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-    </row>
-    <row r="82" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -2801,13 +2391,8 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
-    </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E83"/>
       <c r="G83"/>
       <c r="H83"/>
@@ -2820,13 +2405,8 @@
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-    </row>
-    <row r="84" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -2843,13 +2423,8 @@
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-    </row>
-    <row r="85" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -2866,13 +2441,8 @@
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-    </row>
-    <row r="86" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -2889,13 +2459,8 @@
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E87"/>
       <c r="G87"/>
       <c r="H87"/>
@@ -2908,13 +2473,8 @@
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
-      <c r="R87"/>
-      <c r="S87"/>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-    </row>
-    <row r="88" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -2931,13 +2491,8 @@
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-    </row>
-    <row r="89" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -2954,13 +2509,8 @@
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
-      <c r="R89"/>
-      <c r="S89"/>
-      <c r="T89"/>
-      <c r="U89"/>
-      <c r="V89"/>
-    </row>
-    <row r="90" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -2977,13 +2527,8 @@
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
-      <c r="R90"/>
-      <c r="S90"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E91"/>
       <c r="G91"/>
       <c r="H91"/>
@@ -2996,13 +2541,8 @@
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-    </row>
-    <row r="92" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -3019,13 +2559,8 @@
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
-      <c r="R92"/>
-      <c r="S92"/>
-      <c r="T92"/>
-      <c r="U92"/>
-      <c r="V92"/>
-    </row>
-    <row r="93" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -3042,13 +2577,8 @@
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
-      <c r="R93"/>
-      <c r="S93"/>
-      <c r="T93"/>
-      <c r="U93"/>
-      <c r="V93"/>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E94"/>
       <c r="G94"/>
       <c r="H94"/>
@@ -3061,13 +2591,8 @@
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
-      <c r="R94"/>
-      <c r="S94"/>
-      <c r="T94"/>
-      <c r="U94"/>
-      <c r="V94"/>
-    </row>
-    <row r="95" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -3084,13 +2609,8 @@
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
-      <c r="R95"/>
-      <c r="S95"/>
-      <c r="T95"/>
-      <c r="U95"/>
-      <c r="V95"/>
-    </row>
-    <row r="96" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -3107,13 +2627,8 @@
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
-      <c r="R96"/>
-      <c r="S96"/>
-      <c r="T96"/>
-      <c r="U96"/>
-      <c r="V96"/>
-    </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E97"/>
       <c r="G97"/>
       <c r="H97"/>
@@ -3126,13 +2641,8 @@
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
-      <c r="R97"/>
-      <c r="S97"/>
-      <c r="T97"/>
-      <c r="U97"/>
-      <c r="V97"/>
-    </row>
-    <row r="98" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
@@ -3149,13 +2659,8 @@
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
-      <c r="R98"/>
-      <c r="S98"/>
-      <c r="T98"/>
-      <c r="U98"/>
-      <c r="V98"/>
-    </row>
-    <row r="99" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -3172,14 +2677,9 @@
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
-      <c r="R99"/>
-      <c r="S99"/>
-      <c r="T99"/>
-      <c r="U99"/>
-      <c r="V99"/>
-      <c r="W99" s="23"/>
-    </row>
-    <row r="100" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R99" s="23"/>
+    </row>
+    <row r="100" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -3196,13 +2696,8 @@
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
-      <c r="R100"/>
-      <c r="S100"/>
-      <c r="T100"/>
-      <c r="U100"/>
-      <c r="V100"/>
-    </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E101"/>
       <c r="G101"/>
       <c r="H101"/>
@@ -3215,14 +2710,9 @@
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
-      <c r="R101"/>
-      <c r="S101"/>
-      <c r="T101"/>
-      <c r="U101"/>
-      <c r="V101"/>
-      <c r="W101" s="7"/>
-    </row>
-    <row r="102" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R101" s="7"/>
+    </row>
+    <row r="102" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
@@ -3239,14 +2729,9 @@
       <c r="O102"/>
       <c r="P102"/>
       <c r="Q102"/>
-      <c r="R102"/>
-      <c r="S102"/>
-      <c r="T102"/>
-      <c r="U102"/>
-      <c r="V102"/>
-      <c r="W102" s="7"/>
-    </row>
-    <row r="103" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R102" s="7"/>
+    </row>
+    <row r="103" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
@@ -3263,14 +2748,9 @@
       <c r="O103"/>
       <c r="P103"/>
       <c r="Q103"/>
-      <c r="R103"/>
-      <c r="S103"/>
-      <c r="T103"/>
-      <c r="U103"/>
-      <c r="V103"/>
-      <c r="W103" s="7"/>
-    </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R103" s="7"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E104"/>
       <c r="G104"/>
       <c r="H104"/>
@@ -3283,14 +2763,9 @@
       <c r="O104"/>
       <c r="P104"/>
       <c r="Q104"/>
-      <c r="R104"/>
-      <c r="S104"/>
-      <c r="T104"/>
-      <c r="U104"/>
-      <c r="V104"/>
-      <c r="W104" s="7"/>
-    </row>
-    <row r="105" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R104" s="7"/>
+    </row>
+    <row r="105" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
@@ -3307,13 +2782,8 @@
       <c r="O105"/>
       <c r="P105"/>
       <c r="Q105"/>
-      <c r="R105"/>
-      <c r="S105"/>
-      <c r="T105"/>
-      <c r="U105"/>
-      <c r="V105"/>
-    </row>
-    <row r="106" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
@@ -3330,13 +2800,8 @@
       <c r="O106"/>
       <c r="P106"/>
       <c r="Q106"/>
-      <c r="R106"/>
-      <c r="S106"/>
-      <c r="T106"/>
-      <c r="U106"/>
-      <c r="V106"/>
-    </row>
-    <row r="107" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -3353,13 +2818,8 @@
       <c r="O107"/>
       <c r="P107"/>
       <c r="Q107"/>
-      <c r="R107"/>
-      <c r="S107"/>
-      <c r="T107"/>
-      <c r="U107"/>
-      <c r="V107"/>
-    </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E108"/>
       <c r="G108"/>
       <c r="H108"/>
@@ -3372,13 +2832,8 @@
       <c r="O108"/>
       <c r="P108"/>
       <c r="Q108"/>
-      <c r="R108"/>
-      <c r="S108"/>
-      <c r="T108"/>
-      <c r="U108"/>
-      <c r="V108"/>
-    </row>
-    <row r="109" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
@@ -3395,13 +2850,8 @@
       <c r="O109"/>
       <c r="P109"/>
       <c r="Q109"/>
-      <c r="R109"/>
-      <c r="S109"/>
-      <c r="T109"/>
-      <c r="U109"/>
-      <c r="V109"/>
-    </row>
-    <row r="110" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
@@ -3418,13 +2868,8 @@
       <c r="O110"/>
       <c r="P110"/>
       <c r="Q110"/>
-      <c r="R110"/>
-      <c r="S110"/>
-      <c r="T110"/>
-      <c r="U110"/>
-      <c r="V110"/>
-    </row>
-    <row r="111" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
@@ -3441,13 +2886,8 @@
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111"/>
-      <c r="R111"/>
-      <c r="S111"/>
-      <c r="T111"/>
-      <c r="U111"/>
-      <c r="V111"/>
-    </row>
-    <row r="112" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -3464,13 +2904,8 @@
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112"/>
-      <c r="R112"/>
-      <c r="S112"/>
-      <c r="T112"/>
-      <c r="U112"/>
-      <c r="V112"/>
-    </row>
-    <row r="113" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
@@ -3487,13 +2922,8 @@
       <c r="O113"/>
       <c r="P113"/>
       <c r="Q113"/>
-      <c r="R113"/>
-      <c r="S113"/>
-      <c r="T113"/>
-      <c r="U113"/>
-      <c r="V113"/>
-    </row>
-    <row r="114" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
@@ -3510,13 +2940,8 @@
       <c r="O114"/>
       <c r="P114"/>
       <c r="Q114"/>
-      <c r="R114"/>
-      <c r="S114"/>
-      <c r="T114"/>
-      <c r="U114"/>
-      <c r="V114"/>
-    </row>
-    <row r="115" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
@@ -3533,14 +2958,9 @@
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115"/>
-      <c r="R115"/>
-      <c r="S115"/>
-      <c r="T115"/>
-      <c r="U115"/>
-      <c r="V115"/>
-      <c r="W115" s="7"/>
-    </row>
-    <row r="116" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R115" s="7"/>
+    </row>
+    <row r="116" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
@@ -3557,14 +2977,9 @@
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116"/>
-      <c r="R116"/>
-      <c r="S116"/>
-      <c r="T116"/>
-      <c r="U116"/>
-      <c r="V116"/>
-      <c r="W116" s="7"/>
-    </row>
-    <row r="117" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R116" s="7"/>
+    </row>
+    <row r="117" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
@@ -3581,14 +2996,9 @@
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
-      <c r="R117"/>
-      <c r="S117"/>
-      <c r="T117"/>
-      <c r="U117"/>
-      <c r="V117"/>
-      <c r="W117" s="7"/>
-    </row>
-    <row r="118" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R117" s="7"/>
+    </row>
+    <row r="118" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -3605,14 +3015,9 @@
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118"/>
-      <c r="R118"/>
-      <c r="S118"/>
-      <c r="T118"/>
-      <c r="U118"/>
-      <c r="V118"/>
-      <c r="W118" s="7"/>
-    </row>
-    <row r="119" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R118" s="7"/>
+    </row>
+    <row r="119" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -3629,14 +3034,9 @@
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
-      <c r="R119"/>
-      <c r="S119"/>
-      <c r="T119"/>
-      <c r="U119"/>
-      <c r="V119"/>
-      <c r="W119" s="7"/>
-    </row>
-    <row r="120" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R119" s="7"/>
+    </row>
+    <row r="120" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -3653,14 +3053,9 @@
       <c r="O120"/>
       <c r="P120"/>
       <c r="Q120"/>
-      <c r="R120"/>
-      <c r="S120"/>
-      <c r="T120"/>
-      <c r="U120"/>
-      <c r="V120"/>
-      <c r="W120" s="7"/>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R120" s="7"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E121"/>
       <c r="G121"/>
       <c r="H121"/>
@@ -3673,14 +3068,9 @@
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121"/>
-      <c r="R121"/>
-      <c r="S121"/>
-      <c r="T121"/>
-      <c r="U121"/>
-      <c r="V121"/>
-      <c r="W121" s="7"/>
-    </row>
-    <row r="122" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R121" s="7"/>
+    </row>
+    <row r="122" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -3697,14 +3087,9 @@
       <c r="O122"/>
       <c r="P122"/>
       <c r="Q122"/>
-      <c r="R122"/>
-      <c r="S122"/>
-      <c r="T122"/>
-      <c r="U122"/>
-      <c r="V122"/>
-      <c r="W122" s="7"/>
-    </row>
-    <row r="123" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R122" s="7"/>
+    </row>
+    <row r="123" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -3721,14 +3106,9 @@
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123"/>
-      <c r="R123"/>
-      <c r="S123"/>
-      <c r="T123"/>
-      <c r="U123"/>
-      <c r="V123"/>
-      <c r="W123" s="7"/>
-    </row>
-    <row r="124" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R123" s="7"/>
+    </row>
+    <row r="124" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -3745,14 +3125,9 @@
       <c r="O124"/>
       <c r="P124"/>
       <c r="Q124"/>
-      <c r="R124"/>
-      <c r="S124"/>
-      <c r="T124"/>
-      <c r="U124"/>
-      <c r="V124"/>
-      <c r="W124" s="7"/>
-    </row>
-    <row r="125" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R124" s="7"/>
+    </row>
+    <row r="125" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -3769,14 +3144,9 @@
       <c r="O125"/>
       <c r="P125"/>
       <c r="Q125"/>
-      <c r="R125"/>
-      <c r="S125"/>
-      <c r="T125"/>
-      <c r="U125"/>
-      <c r="V125"/>
-      <c r="W125" s="7"/>
-    </row>
-    <row r="126" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R125" s="7"/>
+    </row>
+    <row r="126" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -3793,14 +3163,9 @@
       <c r="O126"/>
       <c r="P126"/>
       <c r="Q126"/>
-      <c r="R126"/>
-      <c r="S126"/>
-      <c r="T126"/>
-      <c r="U126"/>
-      <c r="V126"/>
-      <c r="W126" s="7"/>
-    </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R126" s="7"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E127"/>
       <c r="G127"/>
       <c r="H127"/>
@@ -3813,17 +3178,12 @@
       <c r="O127"/>
       <c r="P127"/>
       <c r="Q127"/>
-      <c r="R127"/>
-      <c r="S127"/>
-      <c r="T127"/>
-      <c r="U127"/>
-      <c r="V127"/>
-    </row>
-    <row r="129" spans="4:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
+      <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
@@ -3834,17 +3194,12 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
-      <c r="R129" s="8"/>
-      <c r="S129" s="8"/>
-      <c r="T129" s="8"/>
-      <c r="U129" s="8"/>
-      <c r="V129" s="8"/>
-    </row>
-    <row r="130" spans="4:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
+      <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
@@ -3855,17 +3210,12 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
-      <c r="S130" s="8"/>
-      <c r="T130" s="8"/>
-      <c r="U130" s="8"/>
-      <c r="V130" s="8"/>
-    </row>
-    <row r="131" spans="4:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
+      <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -3876,17 +3226,12 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="8"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="8"/>
-    </row>
-    <row r="132" spans="4:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
+      <c r="G132" s="8"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
@@ -3895,16 +3240,11 @@
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
       <c r="S132" s="8"/>
-      <c r="T132" s="8"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="8"/>
-      <c r="X132" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:V125">
+  <autoFilter ref="B2:Q125">
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -3916,17 +3256,13 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
-    <filterColumn colId="15" showButton="0"/>
-    <filterColumn colId="16" showButton="0"/>
-    <filterColumn colId="17" showButton="0"/>
-    <filterColumn colId="18" showButton="0"/>
-    <filterColumn colId="19" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="F2:V2"/>
+    <mergeCell ref="F2:Q2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/server/storage/private/report/Playtorium_Summary_Timesheet.xlsx
+++ b/server/storage/private/report/Playtorium_Summary_Timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timesheet!$B$2:$Q$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timesheet!$B$2:$P$125</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -981,11 +981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S132"/>
+  <dimension ref="B2:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -993,15 +993,15 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="17" width="6.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="16" width="6.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="24" t="s">
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1012,9 +1012,8 @@
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1024,8 +1023,8 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -1036,10 +1035,9 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E4"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1050,9 +1048,8 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -1068,9 +1065,8 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -1086,10 +1082,9 @@
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E7"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -1100,9 +1095,8 @@
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -1118,10 +1112,9 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E9"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -1132,9 +1125,8 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1150,9 +1142,8 @@
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1168,10 +1159,9 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E12"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -1182,9 +1172,8 @@
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1200,9 +1189,8 @@
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13"/>
-    </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1218,9 +1206,8 @@
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1236,10 +1223,9 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E16"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -1250,9 +1236,8 @@
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -1268,9 +1253,8 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -1286,9 +1270,8 @@
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -1304,9 +1287,8 @@
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -1322,9 +1304,8 @@
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -1340,9 +1321,8 @@
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -1358,10 +1338,9 @@
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E23"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
@@ -1372,9 +1351,8 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -1390,9 +1368,8 @@
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24"/>
-    </row>
-    <row r="25" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -1408,9 +1385,8 @@
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1426,9 +1402,8 @@
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -1444,9 +1419,8 @@
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1462,9 +1436,8 @@
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1480,10 +1453,9 @@
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E30"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -1494,9 +1466,8 @@
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1512,9 +1483,8 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1530,9 +1500,8 @@
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
-      <c r="Q32"/>
-    </row>
-    <row r="33" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1548,10 +1517,9 @@
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E34"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -1562,9 +1530,8 @@
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="Q34"/>
-    </row>
-    <row r="35" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -1580,9 +1547,8 @@
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
-      <c r="Q35"/>
-    </row>
-    <row r="36" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -1598,10 +1564,9 @@
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
-      <c r="Q36"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E37"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -1612,9 +1577,8 @@
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
-      <c r="Q37"/>
-    </row>
-    <row r="38" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -1630,9 +1594,8 @@
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
-      <c r="Q38"/>
-    </row>
-    <row r="39" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -1648,9 +1611,8 @@
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
-      <c r="Q39"/>
-    </row>
-    <row r="40" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -1666,10 +1628,9 @@
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="Q40"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E41"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
@@ -1680,9 +1641,8 @@
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41"/>
-    </row>
-    <row r="42" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -1698,9 +1658,8 @@
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42"/>
-    </row>
-    <row r="43" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -1716,9 +1675,8 @@
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
-      <c r="Q43"/>
-    </row>
-    <row r="44" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -1734,11 +1692,10 @@
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44" s="7"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E45"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -1749,10 +1706,9 @@
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45" s="7"/>
-    </row>
-    <row r="46" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -1768,10 +1724,9 @@
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -1787,10 +1742,9 @@
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47" s="7"/>
-    </row>
-    <row r="48" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -1806,11 +1760,10 @@
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48" s="7"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E49"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
@@ -1821,10 +1774,9 @@
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49" s="7"/>
-    </row>
-    <row r="50" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -1840,10 +1792,9 @@
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50" s="7"/>
-    </row>
-    <row r="51" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -1859,10 +1810,9 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51" s="7"/>
-    </row>
-    <row r="52" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -1878,10 +1828,9 @@
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
-      <c r="Q52"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E53"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
@@ -1892,9 +1841,8 @@
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
-      <c r="Q53"/>
-    </row>
-    <row r="54" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -1910,9 +1858,8 @@
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
-      <c r="Q54"/>
-    </row>
-    <row r="55" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -1928,9 +1875,8 @@
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
-      <c r="Q55"/>
-    </row>
-    <row r="56" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -1946,9 +1892,8 @@
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
-      <c r="Q56"/>
-    </row>
-    <row r="57" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -1964,10 +1909,9 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E58"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
@@ -1978,9 +1922,8 @@
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58"/>
-    </row>
-    <row r="59" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -1996,9 +1939,8 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59"/>
-    </row>
-    <row r="60" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -2014,10 +1956,9 @@
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
-      <c r="Q60"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E61"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
@@ -2028,9 +1969,8 @@
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
-      <c r="Q61"/>
-    </row>
-    <row r="62" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -2046,9 +1986,8 @@
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
-      <c r="Q62"/>
-    </row>
-    <row r="63" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -2064,9 +2003,8 @@
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
-      <c r="Q63"/>
-    </row>
-    <row r="64" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -2082,10 +2020,9 @@
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
-      <c r="Q64"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E65"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
@@ -2096,9 +2033,8 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
-      <c r="Q65"/>
-    </row>
-    <row r="66" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -2114,9 +2050,8 @@
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
-      <c r="Q66"/>
-    </row>
-    <row r="67" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -2132,10 +2067,9 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
-      <c r="Q67"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E68"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
@@ -2146,9 +2080,8 @@
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
-      <c r="Q68"/>
-    </row>
-    <row r="69" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -2164,9 +2097,8 @@
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
-      <c r="Q69"/>
-    </row>
-    <row r="70" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -2182,9 +2114,8 @@
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
-      <c r="Q70"/>
-    </row>
-    <row r="71" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -2200,9 +2131,8 @@
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
-      <c r="Q71"/>
-    </row>
-    <row r="72" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -2218,9 +2148,8 @@
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
-      <c r="Q72"/>
-    </row>
-    <row r="73" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -2236,9 +2165,8 @@
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
-      <c r="Q73"/>
-    </row>
-    <row r="74" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -2254,9 +2182,8 @@
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
-      <c r="Q74"/>
-    </row>
-    <row r="75" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -2272,10 +2199,9 @@
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
-      <c r="Q75"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E76"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
@@ -2286,9 +2212,8 @@
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
-      <c r="Q76"/>
-    </row>
-    <row r="77" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -2304,9 +2229,8 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
-      <c r="Q77"/>
-    </row>
-    <row r="78" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -2322,10 +2246,9 @@
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
-      <c r="Q78"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E79"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
@@ -2336,9 +2259,8 @@
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
-      <c r="Q79"/>
-    </row>
-    <row r="80" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -2354,9 +2276,8 @@
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
-      <c r="Q80"/>
-    </row>
-    <row r="81" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -2372,9 +2293,8 @@
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
-      <c r="Q81"/>
-    </row>
-    <row r="82" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -2390,10 +2310,9 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
-      <c r="Q82"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E83"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83"/>
@@ -2404,9 +2323,8 @@
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
-      <c r="Q83"/>
-    </row>
-    <row r="84" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -2422,9 +2340,8 @@
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84"/>
-    </row>
-    <row r="85" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -2440,9 +2357,8 @@
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
-      <c r="Q85"/>
-    </row>
-    <row r="86" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -2458,10 +2374,9 @@
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
-      <c r="Q86"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E87"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87"/>
@@ -2472,9 +2387,8 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
-      <c r="Q87"/>
-    </row>
-    <row r="88" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -2490,9 +2404,8 @@
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
-      <c r="Q88"/>
-    </row>
-    <row r="89" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -2508,9 +2421,8 @@
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
-      <c r="Q89"/>
-    </row>
-    <row r="90" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -2526,10 +2438,9 @@
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
-      <c r="Q90"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E91"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91"/>
@@ -2540,9 +2451,8 @@
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
-      <c r="Q91"/>
-    </row>
-    <row r="92" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -2558,9 +2468,8 @@
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
-      <c r="Q92"/>
-    </row>
-    <row r="93" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -2576,10 +2485,9 @@
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
-      <c r="Q93"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E94"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
@@ -2590,9 +2498,8 @@
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
-      <c r="Q94"/>
-    </row>
-    <row r="95" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -2608,9 +2515,8 @@
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
-      <c r="Q95"/>
-    </row>
-    <row r="96" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -2626,10 +2532,9 @@
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
-      <c r="Q96"/>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E97"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97"/>
@@ -2640,9 +2545,8 @@
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
-      <c r="Q97"/>
-    </row>
-    <row r="98" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
@@ -2658,9 +2562,8 @@
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
-      <c r="Q98"/>
-    </row>
-    <row r="99" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -2676,10 +2579,9 @@
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
-      <c r="Q99"/>
-      <c r="R99" s="23"/>
-    </row>
-    <row r="100" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q99" s="23"/>
+    </row>
+    <row r="100" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -2695,10 +2597,9 @@
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
-      <c r="Q100"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E101"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F101"/>
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101"/>
@@ -2709,10 +2610,9 @@
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
-      <c r="Q101"/>
-      <c r="R101" s="7"/>
-    </row>
-    <row r="102" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q101" s="7"/>
+    </row>
+    <row r="102" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
@@ -2728,10 +2628,9 @@
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102"/>
-      <c r="Q102"/>
-      <c r="R102" s="7"/>
-    </row>
-    <row r="103" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q102" s="7"/>
+    </row>
+    <row r="103" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
@@ -2747,11 +2646,10 @@
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103"/>
-      <c r="Q103"/>
-      <c r="R103" s="7"/>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E104"/>
+      <c r="Q103" s="7"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F104"/>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104"/>
@@ -2762,10 +2660,9 @@
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104"/>
-      <c r="Q104"/>
-      <c r="R104" s="7"/>
-    </row>
-    <row r="105" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q104" s="7"/>
+    </row>
+    <row r="105" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
@@ -2781,9 +2678,8 @@
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105"/>
-      <c r="Q105"/>
-    </row>
-    <row r="106" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
@@ -2799,9 +2695,8 @@
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106"/>
-      <c r="Q106"/>
-    </row>
-    <row r="107" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -2817,10 +2712,9 @@
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107"/>
-      <c r="Q107"/>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E108"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F108"/>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
@@ -2831,9 +2725,8 @@
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108"/>
-      <c r="Q108"/>
-    </row>
-    <row r="109" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
@@ -2849,9 +2742,8 @@
       <c r="N109"/>
       <c r="O109"/>
       <c r="P109"/>
-      <c r="Q109"/>
-    </row>
-    <row r="110" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
@@ -2867,9 +2759,8 @@
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110"/>
-      <c r="Q110"/>
-    </row>
-    <row r="111" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
@@ -2885,9 +2776,8 @@
       <c r="N111"/>
       <c r="O111"/>
       <c r="P111"/>
-      <c r="Q111"/>
-    </row>
-    <row r="112" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -2903,9 +2793,8 @@
       <c r="N112"/>
       <c r="O112"/>
       <c r="P112"/>
-      <c r="Q112"/>
-    </row>
-    <row r="113" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
@@ -2921,9 +2810,8 @@
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
-      <c r="Q113"/>
-    </row>
-    <row r="114" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
@@ -2939,9 +2827,8 @@
       <c r="N114"/>
       <c r="O114"/>
       <c r="P114"/>
-      <c r="Q114"/>
-    </row>
-    <row r="115" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
@@ -2957,10 +2844,9 @@
       <c r="N115"/>
       <c r="O115"/>
       <c r="P115"/>
-      <c r="Q115"/>
-      <c r="R115" s="7"/>
-    </row>
-    <row r="116" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q115" s="7"/>
+    </row>
+    <row r="116" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
@@ -2976,10 +2862,9 @@
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116"/>
-      <c r="Q116"/>
-      <c r="R116" s="7"/>
-    </row>
-    <row r="117" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q116" s="7"/>
+    </row>
+    <row r="117" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
@@ -2995,10 +2880,9 @@
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117"/>
-      <c r="Q117"/>
-      <c r="R117" s="7"/>
-    </row>
-    <row r="118" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q117" s="7"/>
+    </row>
+    <row r="118" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -3014,10 +2898,9 @@
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
-      <c r="Q118"/>
-      <c r="R118" s="7"/>
-    </row>
-    <row r="119" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q118" s="7"/>
+    </row>
+    <row r="119" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -3033,10 +2916,9 @@
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119"/>
-      <c r="Q119"/>
-      <c r="R119" s="7"/>
-    </row>
-    <row r="120" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q119" s="7"/>
+    </row>
+    <row r="120" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -3052,11 +2934,10 @@
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120"/>
-      <c r="Q120"/>
-      <c r="R120" s="7"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E121"/>
+      <c r="Q120" s="7"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F121"/>
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
@@ -3067,10 +2948,9 @@
       <c r="N121"/>
       <c r="O121"/>
       <c r="P121"/>
-      <c r="Q121"/>
-      <c r="R121" s="7"/>
-    </row>
-    <row r="122" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q121" s="7"/>
+    </row>
+    <row r="122" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -3086,10 +2966,9 @@
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122"/>
-      <c r="Q122"/>
-      <c r="R122" s="7"/>
-    </row>
-    <row r="123" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q122" s="7"/>
+    </row>
+    <row r="123" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -3105,10 +2984,9 @@
       <c r="N123"/>
       <c r="O123"/>
       <c r="P123"/>
-      <c r="Q123"/>
-      <c r="R123" s="7"/>
-    </row>
-    <row r="124" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q123" s="7"/>
+    </row>
+    <row r="124" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -3124,10 +3002,9 @@
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124"/>
-      <c r="Q124"/>
-      <c r="R124" s="7"/>
-    </row>
-    <row r="125" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q124" s="7"/>
+    </row>
+    <row r="125" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -3143,10 +3020,9 @@
       <c r="N125"/>
       <c r="O125"/>
       <c r="P125"/>
-      <c r="Q125"/>
-      <c r="R125" s="7"/>
-    </row>
-    <row r="126" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q125" s="7"/>
+    </row>
+    <row r="126" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -3162,11 +3038,10 @@
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126"/>
-      <c r="Q126"/>
-      <c r="R126" s="7"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E127"/>
+      <c r="Q126" s="7"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F127"/>
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
@@ -3177,12 +3052,11 @@
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127"/>
-      <c r="Q127"/>
-    </row>
-    <row r="129" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
+      <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -3193,12 +3067,11 @@
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
-      <c r="Q129" s="8"/>
-    </row>
-    <row r="130" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
+      <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -3209,12 +3082,11 @@
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
-    </row>
-    <row r="131" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -3225,12 +3097,11 @@
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-    </row>
-    <row r="132" spans="4:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
+      <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -3239,12 +3110,12 @@
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="Q132" s="8"/>
-      <c r="S132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="R132" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:Q125">
+  <autoFilter ref="B2:P125">
+    <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -3255,10 +3126,9 @@
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
-    <filterColumn colId="14" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="E2:P2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/storage/private/report/Playtorium_Summary_Timesheet.xlsx
+++ b/server/storage/private/report/Playtorium_Summary_Timesheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmark_s/Documents/playtorium/emp-management/server/storage/private/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmark_s/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,12 +523,6 @@
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Angsana New"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -981,11 +975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R132"/>
+  <dimension ref="B2:R186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -993,8 +987,8 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="16" width="6.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="16" width="6.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3053,65 +3047,773 @@
       <c r="O127"/>
       <c r="P127"/>
     </row>
-    <row r="129" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-    </row>
-    <row r="130" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-    </row>
-    <row r="131" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-    </row>
-    <row r="132" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="P132" s="8"/>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+    </row>
+    <row r="129" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+    </row>
+    <row r="130" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+    </row>
+    <row r="131" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+    </row>
+    <row r="132" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
       <c r="R132" s="8"/>
+    </row>
+    <row r="133" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+    </row>
+    <row r="134" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+    </row>
+    <row r="135" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+    </row>
+    <row r="137" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+    </row>
+    <row r="138" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+    </row>
+    <row r="139" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+    </row>
+    <row r="140" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+    </row>
+    <row r="141" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+    </row>
+    <row r="143" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+    </row>
+    <row r="144" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+    </row>
+    <row r="145" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+    </row>
+    <row r="146" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+    </row>
+    <row r="147" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+    </row>
+    <row r="148" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+    </row>
+    <row r="149" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+    </row>
+    <row r="150" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+    </row>
+    <row r="151" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+    </row>
+    <row r="152" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+    </row>
+    <row r="153" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+    </row>
+    <row r="154" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+    </row>
+    <row r="155" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+    </row>
+    <row r="156" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+    </row>
+    <row r="157" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+    </row>
+    <row r="158" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+    </row>
+    <row r="159" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+    </row>
+    <row r="160" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+    </row>
+    <row r="161" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+    </row>
+    <row r="162" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+    </row>
+    <row r="163" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+    </row>
+    <row r="164" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+    </row>
+    <row r="165" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+    </row>
+    <row r="166" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166"/>
+    </row>
+    <row r="167" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+    </row>
+    <row r="168" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+    </row>
+    <row r="169" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+    </row>
+    <row r="170" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+    </row>
+    <row r="171" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+    </row>
+    <row r="172" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+    </row>
+    <row r="173" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+    </row>
+    <row r="174" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
+      <c r="I174"/>
+      <c r="J174"/>
+      <c r="K174"/>
+      <c r="L174"/>
+      <c r="M174"/>
+      <c r="N174"/>
+      <c r="O174"/>
+      <c r="P174"/>
+    </row>
+    <row r="175" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+    </row>
+    <row r="176" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+    </row>
+    <row r="177" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+    </row>
+    <row r="178" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+    </row>
+    <row r="179" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+    </row>
+    <row r="180" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180"/>
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180"/>
+    </row>
+    <row r="181" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181"/>
+      <c r="N181"/>
+      <c r="O181"/>
+      <c r="P181"/>
+    </row>
+    <row r="182" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182"/>
+    </row>
+    <row r="183" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183"/>
+      <c r="P183"/>
+    </row>
+    <row r="184" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="O184"/>
+      <c r="P184"/>
+    </row>
+    <row r="185" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185"/>
+    </row>
+    <row r="186" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186"/>
+      <c r="P186"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:P125">
@@ -3130,9 +3832,8 @@
   <mergeCells count="1">
     <mergeCell ref="E2:P2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/server/storage/private/report/Playtorium_Summary_Timesheet.xlsx
+++ b/server/storage/private/report/Playtorium_Summary_Timesheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmark_s/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmark_s/Documents/playtorium/emp-management/server/storage/private/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Project" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timesheet!$B$2:$P$125</definedName>
@@ -32,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="144">
-  <si>
-    <t>รหัสพนักงาน</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name-Surname</t>
   </si>
@@ -43,70 +39,7 @@
     <t>Project</t>
   </si>
   <si>
-    <t>PS170001</t>
-  </si>
-  <si>
     <t>Effort (MD)</t>
-  </si>
-  <si>
-    <t>PS170003</t>
-  </si>
-  <si>
-    <t>PS170007</t>
-  </si>
-  <si>
-    <t>PS170024</t>
-  </si>
-  <si>
-    <t>PS170006</t>
-  </si>
-  <si>
-    <t>PS170022</t>
-  </si>
-  <si>
-    <t>PS170008</t>
-  </si>
-  <si>
-    <t>PS170005</t>
-  </si>
-  <si>
-    <t>PS170009</t>
-  </si>
-  <si>
-    <t>PS170019</t>
-  </si>
-  <si>
-    <t>PS170018</t>
-  </si>
-  <si>
-    <t>PS170014</t>
-  </si>
-  <si>
-    <t>PS170021</t>
-  </si>
-  <si>
-    <t>PS170002</t>
-  </si>
-  <si>
-    <t>PS170004</t>
-  </si>
-  <si>
-    <t>PS170011</t>
-  </si>
-  <si>
-    <t>PS170015</t>
-  </si>
-  <si>
-    <t>PS170013</t>
-  </si>
-  <si>
-    <t>PS170026</t>
-  </si>
-  <si>
-    <t>PS170030</t>
-  </si>
-  <si>
-    <t>PS170025</t>
   </si>
   <si>
     <t>Prj.No</t>
@@ -115,355 +48,13 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Quo.No.</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>MFEC</t>
+    <t>Quo.No</t>
   </si>
   <si>
-    <t>201701003</t>
-  </si>
-  <si>
-    <t>Function Lead Service for Project New Interaction Mgmt by Pega</t>
-  </si>
-  <si>
-    <t>201701014-2</t>
-  </si>
-  <si>
-    <t>Tester Service for Project MTL Tester Outsourcing</t>
-  </si>
-  <si>
-    <t>201701001</t>
-  </si>
-  <si>
-    <t>Tester Service for Project SCB Tester Outsourcing</t>
-  </si>
-  <si>
-    <t>201702001</t>
-  </si>
-  <si>
-    <t>Load Test for Project Panjaluck-Panda Pass Reservation &amp; Booking</t>
-  </si>
-  <si>
-    <t>201701008</t>
-  </si>
-  <si>
-    <t>Tester Service for Project Panjaluck-PandaPass Reservation &amp; Booking</t>
-  </si>
-  <si>
-    <t>201701004-2</t>
-  </si>
-  <si>
-    <t>Tester Service for Project New Interaction Mgmt by Pega</t>
-  </si>
-  <si>
-    <t>201702006</t>
-  </si>
-  <si>
-    <t>Automate Tester Service for AIA - COAST Project</t>
-  </si>
-  <si>
-    <t>Symphony</t>
-  </si>
-  <si>
-    <t>201612001</t>
-  </si>
-  <si>
-    <t>Tester Service for  Broadband Management System Project</t>
-  </si>
-  <si>
-    <t>201701002-2</t>
-  </si>
-  <si>
-    <t>Tester Service for Project SET-Outsource สำหรับ QC Mobile Testing</t>
-  </si>
-  <si>
-    <t>201701005</t>
-  </si>
-  <si>
-    <t>Tester Service for KTBCS - New Treasury Project</t>
-  </si>
-  <si>
-    <t>PS170010</t>
-  </si>
-  <si>
-    <t>201701009-2</t>
-  </si>
-  <si>
-    <t>Performance Test Service for Project TMB-CIB Load Test</t>
-  </si>
-  <si>
-    <t>201701010</t>
-  </si>
-  <si>
-    <t>Performance Test Service for Project TMB-System Performance Test for Payments Hub Project Phase1</t>
-  </si>
-  <si>
-    <t>PS170012</t>
-  </si>
-  <si>
-    <t>201701011</t>
-  </si>
-  <si>
-    <t>Performance Test Service for Project TMB Business Mobile Banking Test Resource (Performance Test)</t>
-  </si>
-  <si>
-    <t>201701012-2</t>
-  </si>
-  <si>
-    <t>Performance Test Service for Project  Performance Test for Any ID Solution Phase1</t>
-  </si>
-  <si>
-    <t>201702008-2</t>
-  </si>
-  <si>
-    <t>Tester Service for Project GSB - IB Server Replacement</t>
-  </si>
-  <si>
-    <t>201702009-2</t>
-  </si>
-  <si>
-    <t>Tester Service for Project [KBank][AnyID]CR Open API for Non-Bank</t>
-  </si>
-  <si>
-    <t>PS170016</t>
-  </si>
-  <si>
-    <t>201702010-2</t>
-  </si>
-  <si>
-    <t>Tester Service for Project GSB - AnyID</t>
-  </si>
-  <si>
-    <t>PS170017</t>
-  </si>
-  <si>
-    <t>201702011-2</t>
-  </si>
-  <si>
-    <t>Tester Service for Project GSB - CR AnyID Credit Transfer</t>
-  </si>
-  <si>
-    <t>201702012-2</t>
-  </si>
-  <si>
-    <t>Tester Service for Project GSB - Corporate Banking</t>
-  </si>
-  <si>
-    <t>201702013-2</t>
-  </si>
-  <si>
-    <t>Tester Service for Project GSB - Payment Gateway</t>
-  </si>
-  <si>
-    <t>PS170020</t>
-  </si>
-  <si>
-    <t>201702014</t>
-  </si>
-  <si>
-    <t>Tester Service for Project  MA KBANk 2017</t>
-  </si>
-  <si>
-    <t>201702015-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tester Service for Project KBANK - RSSO system improvement (64bits)</t>
-  </si>
-  <si>
-    <t>201702017</t>
-  </si>
-  <si>
-    <t>Loadtest Service for Project CAT-Centralized Service Support System (CSS)</t>
-  </si>
-  <si>
-    <t>PS170023</t>
-  </si>
-  <si>
-    <t>201703002</t>
-  </si>
-  <si>
-    <t>Tester Service for Symphony Special Project2</t>
-  </si>
-  <si>
-    <t>201703004</t>
-  </si>
-  <si>
-    <t>Automate Tester Service for AIA - CMIC Project</t>
-  </si>
-  <si>
-    <t>201703005</t>
-  </si>
-  <si>
-    <t>Loadtest Service for KTBCS - New Treasury Project</t>
-  </si>
-  <si>
-    <t>201703001</t>
-  </si>
-  <si>
-    <t>Automate Tester Service for SCB-BAU Testing</t>
-  </si>
-  <si>
-    <t>PS170027</t>
-  </si>
-  <si>
-    <t>201703008</t>
-  </si>
-  <si>
-    <t>KTBCS - New Treasury Project - 1 Tester Outsource</t>
-  </si>
-  <si>
-    <t>PS170028</t>
-  </si>
-  <si>
-    <t>201703009</t>
-  </si>
-  <si>
-    <t>Project New Interaction Mgmt by Pega -Tester Outsourcing Apr-Oct</t>
-  </si>
-  <si>
-    <t>PS170029</t>
-  </si>
-  <si>
-    <t>201701013</t>
-  </si>
-  <si>
-    <t>Tester Service for  Project MTL SQL Tester</t>
-  </si>
-  <si>
-    <t>201702005</t>
-  </si>
-  <si>
-    <t>Loadtest Service for  Project TMB-System Performance Testing Service for Cash Prediction and Cash Monitoring System (CPM)</t>
-  </si>
-  <si>
-    <t>Tester Service for Project Panjaluck-PandaPass Reservation &amp; Booking 2</t>
-  </si>
-  <si>
-    <t>Project New Interaction Mgmt by Pega -Tester Outsourcing May-Sep</t>
-  </si>
-  <si>
-    <t>PS170031</t>
-  </si>
-  <si>
-    <t>201704001</t>
-  </si>
-  <si>
-    <t>PS170032</t>
-  </si>
-  <si>
-    <t>201704002</t>
-  </si>
-  <si>
-    <t>Loadtest Service for AIA-Touchpoints Interactive Processing System(TIPS)</t>
-  </si>
-  <si>
-    <t>PS170033</t>
-  </si>
-  <si>
-    <t>201704003</t>
-  </si>
-  <si>
-    <t>PS170034</t>
-  </si>
-  <si>
-    <t>201704004</t>
-  </si>
-  <si>
-    <t>Tester Service for Kbank-RSSO-KS Access Water Mark</t>
-  </si>
-  <si>
-    <t>PS170035</t>
-  </si>
-  <si>
-    <t>201704005</t>
-  </si>
-  <si>
-    <t>Tester Service for Kbank-MA Non Bank Boonterm 2017</t>
-  </si>
-  <si>
-    <t>PS170036</t>
-  </si>
-  <si>
-    <t>201704006</t>
-  </si>
-  <si>
-    <t>Tester Service for Kbank-RSSO-API for Inter Express System</t>
-  </si>
-  <si>
-    <t>PS170037</t>
-  </si>
-  <si>
-    <t>201704007</t>
-  </si>
-  <si>
-    <t>Tester Service for Kbank-RSSO-API supports Transaction Fraud</t>
-  </si>
-  <si>
-    <t>PS170038</t>
-  </si>
-  <si>
-    <t>201705001</t>
-  </si>
-  <si>
-    <t>Loadtest Service for AIS-New Interaction Mgmt by Pega</t>
-  </si>
-  <si>
-    <t>PS170039</t>
-  </si>
-  <si>
-    <t>201705002</t>
-  </si>
-  <si>
-    <t>Load Test Service for TMB-ME Load Test</t>
-  </si>
-  <si>
-    <t>PS170040</t>
-  </si>
-  <si>
-    <t>201705003</t>
-  </si>
-  <si>
-    <t>PS170041</t>
-  </si>
-  <si>
-    <t>201705004</t>
-  </si>
-  <si>
-    <t>Load Test Service for TMB-SLS Mobiltiy Performance Test</t>
-  </si>
-  <si>
-    <t>PS170042</t>
-  </si>
-  <si>
-    <t>201705005</t>
-  </si>
-  <si>
-    <t>Tester Service for Central Group-Work flow Project</t>
-  </si>
-  <si>
-    <t>PS170043</t>
-  </si>
-  <si>
-    <t>201705006</t>
-  </si>
-  <si>
-    <t>Load Test Service for Tbank-mobile</t>
-  </si>
-  <si>
-    <t>PS170044</t>
-  </si>
-  <si>
-    <t>201705007</t>
-  </si>
-  <si>
-    <t>Tester Service for SCB-Ripple Integration Server</t>
-  </si>
-  <si>
-    <t>AIA-Automate Testing Service on COAST-CR</t>
+    <t>Emp.ID</t>
   </si>
 </sst>
 </file>
@@ -473,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,19 +104,8 @@
       <name val="Angsana New"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,23 +121,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -593,43 +161,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,25 +185,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -979,7 +508,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -987,35 +516,35 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="16" width="6.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="16" width="7.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="24" t="s">
-        <v>4</v>
+      <c r="E2" s="13" t="s">
+        <v>2</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
@@ -2573,7 +2102,7 @@
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
-      <c r="Q99" s="23"/>
+      <c r="Q99" s="9"/>
     </row>
     <row r="100" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100"/>
@@ -3839,672 +3368,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E47"/>
+  <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="105.5" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+    <row r="2" spans="2:5" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B10" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B20" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B31" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B32" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B34" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B35" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B36" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B37" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B38" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B39" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B40" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B41" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B42" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B43" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B44" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="B45" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B46" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="B47" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>142</v>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>